--- a/LGC_Motiv_results/nutrition/Glutamate_scoring.xlsx
+++ b/LGC_Motiv_results/nutrition/Glutamate_scoring.xlsx
@@ -630,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>11836.406835</v>
+        <v>12583.406835</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -638,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>23859.4458</v>
+        <v>26149.9458</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -646,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>10797.9731125</v>
+        <v>12952.9731125</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -654,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>28165.75041</v>
+        <v>30456.25041</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -670,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>6719.92685</v>
+        <v>7516.42685</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -678,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>12062.77442</v>
+        <v>16270.27442</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -686,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>14670.62336</v>
+        <v>16961.12336000001</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -702,7 +702,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>24387.58843500001</v>
+        <v>27321.588435</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -710,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>9866.013642500002</v>
+        <v>12206.0136425</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -718,7 +718,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>19750.7213425</v>
+        <v>20124.2213425</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -726,7 +726,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>19859.957655</v>
+        <v>20233.457655</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -734,7 +734,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>6508.761475</v>
+        <v>6882.261475</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -742,7 +742,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>24422.02535</v>
+        <v>24795.52535</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -750,7 +750,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>24202.066055</v>
+        <v>24998.566055</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -758,7 +758,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>23945.436005</v>
+        <v>24692.436005</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -766,7 +766,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>62125.4760775</v>
+        <v>62872.4760775</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -782,7 +782,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>27643.135575</v>
+        <v>28016.635575</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -790,7 +790,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>13978.68145</v>
+        <v>14725.68145</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -798,7 +798,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>16445.6073</v>
+        <v>16819.1073</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -806,7 +806,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>46978.90813</v>
+        <v>47725.90813</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -822,7 +822,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>23982.5915175</v>
+        <v>24356.0915175</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -838,7 +838,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>14258.0058375</v>
+        <v>14681.0058375</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>28280.31575</v>
+        <v>31568.81575</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -854,7 +854,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>15903.8850625</v>
+        <v>20309.38506249999</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -862,7 +862,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>15728.637305</v>
+        <v>16574.637305</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -870,7 +870,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>11103.60695</v>
+        <v>11477.10695</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -878,7 +878,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>9268.038525</v>
+        <v>9691.038525</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -886,7 +886,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>10945.398175</v>
+        <v>11368.398175</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -894,7 +894,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>5877.78935</v>
+        <v>6624.78935</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -902,7 +902,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>10200.9811925</v>
+        <v>10997.4811925</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -910,7 +910,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>25237.4467125</v>
+        <v>25610.9467125</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -918,7 +918,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>48337.255725</v>
+        <v>61508.755725</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -926,7 +926,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>18930.249795</v>
+        <v>19600.749795</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -934,7 +934,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>10082.28205</v>
+        <v>10379.28205</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -942,7 +942,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>31220.270575</v>
+        <v>32066.270575</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -950,7 +950,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>14879.4317</v>
+        <v>15675.9317</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -958,7 +958,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>19324.58745</v>
+        <v>20831.58745</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -966,7 +966,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>5669.5787475</v>
+        <v>5719.0787475</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -974,7 +974,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>10164.029655</v>
+        <v>10960.529655</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -982,7 +982,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>53955.5189675</v>
+        <v>54329.0189675</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -990,7 +990,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>25008.85185</v>
+        <v>25382.35185</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>8889.16532</v>
+        <v>9312.16532</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>14095.170685</v>
+        <v>16435.170685</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>8669.756217500002</v>
+        <v>9092.756217500002</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>18657.04542</v>
+        <v>19453.54542</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>30390.2481425</v>
+        <v>34795.7481425</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>12766.14543</v>
+        <v>13139.64543</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>18621.9544625</v>
+        <v>19467.9544625</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>47443.3185925</v>
+        <v>51006.3185925</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>12630.42143</v>
+        <v>14871.42143</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>11739.6671</v>
+        <v>14079.6671</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>26532.7519425</v>
+        <v>28872.7519425</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>29205.23784999999</v>
+        <v>29578.73784999999</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>7630.300925</v>
+        <v>8003.800925</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>18922.156885</v>
+        <v>19718.656885</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>29710.70955</v>
+        <v>30457.70955</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>14511.9343925</v>
+        <v>15357.9343925</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>17305.6492225</v>
+        <v>22534.6492225</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>23739.6712175</v>
+        <v>25980.6712175</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>7267.6126675</v>
+        <v>7641.1126675</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>8836.06811</v>
+        <v>11077.06811</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>17045.540325</v>
+        <v>17419.040325</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>27408.25702999999</v>
+        <v>27781.75702999999</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>23453.16305</v>
+        <v>23925.66305</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>12707.084775</v>
+        <v>13553.084775</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>18178.316935</v>
+        <v>18925.316935</v>
       </c>
     </row>
   </sheetData>
